--- a/ServiceNowQAAutomation/SNOWQA/testdata/LogInTestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/LogInTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11310" windowHeight="3915"/>
   </bookViews>
   <sheets>
     <sheet name="login_credentials" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -441,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
